--- a/gold/excel/route_summary.xlsx
+++ b/gold/excel/route_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>distance_miles</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>origin</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>destination</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>num_flights</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>avg_revenue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>avg_cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_margin</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_profit_pct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>delay_count</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_delay_minutes</t>
         </is>
@@ -488,152 +493,289 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RT8820</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2475</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>LAX</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HND</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" t="n">
-        <v>167783.45</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>59783.04</v>
+        <v>42268.72</v>
       </c>
       <c r="G2" t="n">
-        <v>108000.41</v>
+        <v>48264.62</v>
       </c>
       <c r="H2" t="n">
-        <v>64.37</v>
+        <v>-5995.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>-15.79</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RT0983</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>SFO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>123928.05</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>28424.53</v>
+        <v>37228.61</v>
       </c>
       <c r="G3" t="n">
-        <v>95503.52</v>
+        <v>41804.87</v>
       </c>
       <c r="H3" t="n">
-        <v>75.69</v>
+        <v>-4576.26</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>-12.69</v>
       </c>
       <c r="J3" t="n">
-        <v>48.5</v>
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RT2741</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3625</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>JFK</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>95924.2</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>27863.03</v>
+        <v>114673.23</v>
       </c>
       <c r="G4" t="n">
-        <v>68061.17</v>
+        <v>99245.39</v>
       </c>
       <c r="H4" t="n">
-        <v>70.88</v>
+        <v>15427.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12.26</v>
       </c>
       <c r="J4" t="n">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RT4127</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
       <c r="E5" t="n">
-        <v>65087.85</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>28078.77</v>
+        <v>45638.98</v>
       </c>
       <c r="G5" t="n">
-        <v>37009.08</v>
+        <v>32079.6</v>
       </c>
       <c r="H5" t="n">
-        <v>49.42</v>
+        <v>13559.38</v>
       </c>
       <c r="I5" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40214.39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28622.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11592.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RT9374</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8446</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>213257.46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>171190.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42067.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>732</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34668.01</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26577.93</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8090.07</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
